--- a/load_pred/models_log.xlsx
+++ b/load_pred/models_log.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\load_pred\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E101DAE7-18BC-4563-8593-AE7E3A1E3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C2C0CA-A2D4-4F48-8F5B-8046D358CC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3765" yWindow="0" windowWidth="12435" windowHeight="11332" xr2:uid="{41E7A165-8168-414D-A92E-36E7FAEEEDA9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{41E7A165-8168-414D-A92E-36E7FAEEEDA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>Linear Regression</t>
   </si>
@@ -57,9 +59,6 @@
     <t>fuzzy timeseries model</t>
   </si>
   <si>
-    <t>Random Forest</t>
-  </si>
-  <si>
     <t>XGBoost</t>
   </si>
   <si>
@@ -70,9 +69,6 @@
   </si>
   <si>
     <t>ARIMA/VARIMA (Statistical Model)</t>
-  </si>
-  <si>
-    <t>LSTM ?</t>
   </si>
   <si>
     <r>
@@ -102,12 +98,75 @@
   <si>
     <t>Type in this review</t>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>DeepAR</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>OPE</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>MARRE</t>
+  </si>
+  <si>
+    <t>MASE</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>SMAPE</t>
+  </si>
+  <si>
+    <t>DeepAR_optuna</t>
+  </si>
+  <si>
+    <t>LR_NAIVE</t>
+  </si>
+  <si>
+    <t>LR_PCo</t>
+  </si>
+  <si>
+    <t>RF_NAIVE</t>
+  </si>
+  <si>
+    <t>TFT_NAIVE</t>
+  </si>
+  <si>
+    <t>TFT_optuna</t>
+  </si>
+  <si>
+    <t>XGB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,16 +190,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -305,11 +392,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -331,10 +498,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -352,6 +564,3001 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5.1808620507603802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6552735428550198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7999963849691198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1737397106522103E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8096853842949598</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.5137027273106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6985079942989199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57016248472839204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94342701727381795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7652439677840701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5EC9-48C6-87B1-CAD3D8CCB1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR_PCo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$6:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.6258449721215804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6383973143380999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1777090329369999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8680688694235399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6075745404043102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.4448922261906</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0678927561814504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78126702190599395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.87743090938527402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1603321331274801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5EC9-48C6-87B1-CAD3D8CCB1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFT_optuna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7.0132857337776597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.51926539973952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1864323606526996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6675891346768099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1003924271406396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.014002910833501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9019549228818899</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75568602343570301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89859998065523805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9897223379402202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5EC9-48C6-87B1-CAD3D8CCB1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR_NAIVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.3378610803962303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2285131565634302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0143419088404197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18951917076748601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8664852547736004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.148619754023301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.88986010711813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90798161814266198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81621932727831803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8901382613006703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5EC9-48C6-87B1-CAD3D8CCB1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFT_NAIVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11.9492313654392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3524598874923397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2878187313251495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.92871822767516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6900450772892697</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.516883445319493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4553959746721299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14932483588125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.70564263145282502</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.4881744243713602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5EC9-48C6-87B1-CAD3D8CCB1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepAR_optuna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$4:$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.89</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.7100000000000009</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5EC9-48C6-87B1-CAD3D8CCB1D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="662815375"/>
+        <c:axId val="662813711"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="662815375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662813711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="662813711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="662815375"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Relative performance of SOTA models</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DeepAR_optuna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB4A-4C19-8944-DABA2DAE9798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR_NAIVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27598429275740688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22785309364283668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22847625572457053</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46711673821548211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27573656519255935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18328499841144449</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22779449104878718</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.21767000539103812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18159384072103879</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22630062861416164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB4A-4C19-8944-DABA2DAE9798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LR_PCo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20683995367456229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20024255661764401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22992290953651107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41527274324091962</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19795165094286113</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12449405879058663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20019105530568196</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19129342367762928</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12334536093337745</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19862560071432539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB4A-4C19-8944-DABA2DAE9798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFT_NAIVE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.46923290431352249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36462093931892275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36722125976038245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3044325601731428E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46881171394949778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3532823677742391</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36452716076824376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.34832549586377048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.3500226564049238</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34468424742394937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FB4A-4C19-8944-DABA2DAE9798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFT_optuna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$22:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.76399863660095169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6251117820391392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74424869914991698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74848530793887125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66037698542875223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62495100664033387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59717462155571555</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65428373378701865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60390556205824053</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FB4A-4C19-8944-DABA2DAE9798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>XGB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$C$17:$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MAPE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OPE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RMSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MSE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MARRE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>R2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SMAPE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$23:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.9716610037642216E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FB4A-4C19-8944-DABA2DAE9798}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="875035295"/>
+        <c:axId val="875035711"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="875035295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875035711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="875035711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="875035295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.881776625629056E-2"/>
+          <c:y val="8.3581078706173748E-2"/>
+          <c:w val="0.89999986561444056"/>
+          <c:h val="5.6672702016522601E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>226217</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CC3362-9A15-40EB-9497-DE86007D7DB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>588167</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>164305</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F8E1037-4F47-4DA9-AEC5-10B19A218474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC127B8-C3E9-4B38-ABB4-A1E334F7A36D}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -663,93 +3870,114 @@
     <col min="3" max="3" width="31.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>5.17</v>
+      </c>
+      <c r="G3">
+        <v>6.01</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>14</v>
+      <c r="C4" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>8</v>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3"/>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>3.79</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>11</v>
+      <c r="C9" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="8" t="s">
         <v>6</v>
@@ -757,30 +3985,1161 @@
       <c r="C10" s="10"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="3"/>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>5.18</v>
+      </c>
+      <c r="G12">
+        <v>8.2799999999999994</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
     </row>
+    <row r="14" spans="1:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="J15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="J16" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="22">
+        <v>5.1808620507603802</v>
+      </c>
+      <c r="L16" s="22">
+        <v>2.6552735428550198</v>
+      </c>
+      <c r="M16" s="22">
+        <v>3.7999963849691198</v>
+      </c>
+      <c r="N16" s="22">
+        <v>6.1737397106522103E-2</v>
+      </c>
+      <c r="O16" s="22">
+        <v>3.8096853842949598</v>
+      </c>
+      <c r="P16" s="22">
+        <v>14.5137027273106</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>3.6985079942989199</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0.57016248472839204</v>
+      </c>
+      <c r="S16" s="22">
+        <v>0.94342701727381795</v>
+      </c>
+      <c r="T16" s="23">
+        <v>3.7652439677840701</v>
+      </c>
+    </row>
+    <row r="17" spans="10:20" x14ac:dyDescent="0.45">
+      <c r="J17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="22">
+        <v>7.6258449721215804</v>
+      </c>
+      <c r="L17" s="22">
+        <v>3.6383973143380999</v>
+      </c>
+      <c r="M17" s="22">
+        <v>5.1777090329369999</v>
+      </c>
+      <c r="N17" s="22">
+        <v>1.8680688694235399</v>
+      </c>
+      <c r="O17" s="22">
+        <v>5.6075745404043102</v>
+      </c>
+      <c r="P17" s="22">
+        <v>31.4448922261906</v>
+      </c>
+      <c r="Q17" s="22">
+        <v>5.0678927561814504</v>
+      </c>
+      <c r="R17" s="22">
+        <v>0.78126702190599395</v>
+      </c>
+      <c r="S17" s="22">
+        <v>0.87743090938527402</v>
+      </c>
+      <c r="T17" s="23">
+        <v>5.1603321331274801</v>
+      </c>
+    </row>
+    <row r="18" spans="10:20" x14ac:dyDescent="0.45">
+      <c r="J18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="22">
+        <v>7.0132857337776597</v>
+      </c>
+      <c r="L18" s="22">
+        <v>3.51926539973952</v>
+      </c>
+      <c r="M18" s="22">
+        <v>5.1864323606526996</v>
+      </c>
+      <c r="N18" s="22">
+        <v>1.6675891346768099</v>
+      </c>
+      <c r="O18" s="22">
+        <v>5.1003924271406396</v>
+      </c>
+      <c r="P18" s="22">
+        <v>26.014002910833501</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>4.9019549228818899</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0.75568602343570301</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0.89859998065523805</v>
+      </c>
+      <c r="T18" s="23">
+        <v>4.9897223379402202</v>
+      </c>
+    </row>
+    <row r="19" spans="10:20" x14ac:dyDescent="0.45">
+      <c r="J19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="22">
+        <v>9.3378610803962303</v>
+      </c>
+      <c r="L19" s="22">
+        <v>4.2285131565634302</v>
+      </c>
+      <c r="M19" s="22">
+        <v>6.0143419088404197</v>
+      </c>
+      <c r="N19" s="22">
+        <v>0.18951917076748601</v>
+      </c>
+      <c r="O19" s="22">
+        <v>6.8664852547736004</v>
+      </c>
+      <c r="P19" s="22">
+        <v>47.148619754023301</v>
+      </c>
+      <c r="Q19" s="22">
+        <v>5.88986010711813</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0.90798161814266198</v>
+      </c>
+      <c r="S19" s="22">
+        <v>0.81621932727831803</v>
+      </c>
+      <c r="T19" s="23">
+        <v>5.8901382613006703</v>
+      </c>
+    </row>
+    <row r="20" spans="10:20" x14ac:dyDescent="0.45">
+      <c r="J20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="22">
+        <v>11.9492313654392</v>
+      </c>
+      <c r="L20" s="22">
+        <v>5.3524598874923397</v>
+      </c>
+      <c r="M20" s="22">
+        <v>8.2878187313251495</v>
+      </c>
+      <c r="N20" s="22">
+        <v>3.92871822767516</v>
+      </c>
+      <c r="O20" s="22">
+        <v>8.6900450772892697</v>
+      </c>
+      <c r="P20" s="22">
+        <v>75.516883445319493</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>7.4553959746721299</v>
+      </c>
+      <c r="R20" s="22">
+        <v>1.14932483588125</v>
+      </c>
+      <c r="S20" s="22">
+        <v>0.70564263145282502</v>
+      </c>
+      <c r="T20" s="23">
+        <v>7.4881744243713602</v>
+      </c>
+    </row>
+    <row r="21" spans="10:20" x14ac:dyDescent="0.45">
+      <c r="J21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" s="22">
+        <v>14.04</v>
+      </c>
+      <c r="L21" s="22">
+        <v>6.97</v>
+      </c>
+      <c r="M21" s="22">
+        <v>9.83</v>
+      </c>
+      <c r="N21" s="22">
+        <v>0.37</v>
+      </c>
+      <c r="O21" s="22">
+        <v>10.33</v>
+      </c>
+      <c r="P21" s="22">
+        <v>106.89</v>
+      </c>
+      <c r="Q21" s="22">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="R21" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="S21" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="T21" s="23">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="22" spans="10:20" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J22" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="28">
+        <v>25.1825384429522</v>
+      </c>
+      <c r="L22" s="28">
+        <v>14.5629439793085</v>
+      </c>
+      <c r="M22" s="28">
+        <v>18.491473401044701</v>
+      </c>
+      <c r="N22" s="28">
+        <v>12.011312348811099</v>
+      </c>
+      <c r="O22" s="28">
+        <v>18.5368834664832</v>
+      </c>
+      <c r="P22" s="28">
+        <v>343.61604864997798</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>20.2846011375863</v>
+      </c>
+      <c r="R22" s="28">
+        <v>3.2125198413341001</v>
+      </c>
+      <c r="S22" s="28">
+        <v>-0.33938149002697598</v>
+      </c>
+      <c r="T22" s="29">
+        <v>20.1323766433045</v>
+      </c>
+    </row>
+    <row r="23" spans="10:20" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J16:T22">
+    <sortCondition ref="M15:M22"/>
+  </sortState>
+  <conditionalFormatting sqref="K16:K21">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L21">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M21">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N21">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O21">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:P21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q16:Q21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16:R21">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:S21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C50C24C-4726-48CA-85D5-EB4D4FCBAB4D}">
+  <dimension ref="B3:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="15.59765625" customWidth="1"/>
+    <col min="3" max="7" width="5.46484375" customWidth="1"/>
+    <col min="8" max="9" width="6.06640625" customWidth="1"/>
+    <col min="10" max="11" width="5.46484375" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="4" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="22">
+        <v>5.1808620507603802</v>
+      </c>
+      <c r="D5" s="22">
+        <v>2.6552735428550198</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3.7999963849691198</v>
+      </c>
+      <c r="F5" s="22">
+        <v>6.1737397106522103E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>3.8096853842949598</v>
+      </c>
+      <c r="H5" s="22">
+        <v>14.5137027273106</v>
+      </c>
+      <c r="I5" s="22">
+        <v>3.6985079942989199</v>
+      </c>
+      <c r="J5" s="22">
+        <v>0.57016248472839204</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.94342701727381795</v>
+      </c>
+      <c r="L5" s="23">
+        <v>3.7652439677840701</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="22">
+        <v>7.6258449721215804</v>
+      </c>
+      <c r="D6" s="22">
+        <v>3.6383973143380999</v>
+      </c>
+      <c r="E6" s="22">
+        <v>5.1777090329369999</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1.8680688694235399</v>
+      </c>
+      <c r="G6" s="22">
+        <v>5.6075745404043102</v>
+      </c>
+      <c r="H6" s="22">
+        <v>31.4448922261906</v>
+      </c>
+      <c r="I6" s="22">
+        <v>5.0678927561814504</v>
+      </c>
+      <c r="J6" s="22">
+        <v>0.78126702190599395</v>
+      </c>
+      <c r="K6" s="22">
+        <v>0.87743090938527402</v>
+      </c>
+      <c r="L6" s="23">
+        <v>5.1603321331274801</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="22">
+        <v>7.0132857337776597</v>
+      </c>
+      <c r="D7" s="22">
+        <v>3.51926539973952</v>
+      </c>
+      <c r="E7" s="22">
+        <v>5.1864323606526996</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1.6675891346768099</v>
+      </c>
+      <c r="G7" s="22">
+        <v>5.1003924271406396</v>
+      </c>
+      <c r="H7" s="22">
+        <v>26.014002910833501</v>
+      </c>
+      <c r="I7" s="22">
+        <v>4.9019549228818899</v>
+      </c>
+      <c r="J7" s="22">
+        <v>0.75568602343570301</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.89859998065523805</v>
+      </c>
+      <c r="L7" s="23">
+        <v>4.9897223379402202</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="22">
+        <v>9.3378610803962303</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4.2285131565634302</v>
+      </c>
+      <c r="E8" s="22">
+        <v>6.0143419088404197</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.18951917076748601</v>
+      </c>
+      <c r="G8" s="22">
+        <v>6.8664852547736004</v>
+      </c>
+      <c r="H8" s="22">
+        <v>47.148619754023301</v>
+      </c>
+      <c r="I8" s="22">
+        <v>5.88986010711813</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0.90798161814266198</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0.81621932727831803</v>
+      </c>
+      <c r="L8" s="23">
+        <v>5.8901382613006703</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="22">
+        <v>11.9492313654392</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5.3524598874923397</v>
+      </c>
+      <c r="E9" s="22">
+        <v>8.2878187313251495</v>
+      </c>
+      <c r="F9" s="22">
+        <v>3.92871822767516</v>
+      </c>
+      <c r="G9" s="22">
+        <v>8.6900450772892697</v>
+      </c>
+      <c r="H9" s="22">
+        <v>75.516883445319493</v>
+      </c>
+      <c r="I9" s="22">
+        <v>7.4553959746721299</v>
+      </c>
+      <c r="J9" s="22">
+        <v>1.14932483588125</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0.70564263145282502</v>
+      </c>
+      <c r="L9" s="23">
+        <v>7.4881744243713602</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="22">
+        <v>14.04</v>
+      </c>
+      <c r="D10" s="22">
+        <v>6.97</v>
+      </c>
+      <c r="E10" s="22">
+        <v>9.83</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.37</v>
+      </c>
+      <c r="G10" s="22">
+        <v>10.33</v>
+      </c>
+      <c r="H10" s="22">
+        <v>106.89</v>
+      </c>
+      <c r="I10" s="22">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="J10" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L10" s="23">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="28">
+        <v>25.1825384429522</v>
+      </c>
+      <c r="D12" s="28">
+        <v>14.5629439793085</v>
+      </c>
+      <c r="E12" s="28">
+        <v>18.491473401044701</v>
+      </c>
+      <c r="F12" s="28">
+        <v>12.011312348811099</v>
+      </c>
+      <c r="G12" s="28">
+        <v>18.5368834664832</v>
+      </c>
+      <c r="H12" s="28">
+        <v>343.61604864997798</v>
+      </c>
+      <c r="I12" s="28">
+        <v>20.2846011375863</v>
+      </c>
+      <c r="J12" s="28">
+        <v>3.2125198413341001</v>
+      </c>
+      <c r="K12" s="28">
+        <v>-0.33938149002697598</v>
+      </c>
+      <c r="L12" s="29">
+        <v>20.1323766433045</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="17">
+        <f>(C5-MIN(C$5:C$10))/(MAX(C$5:C$10)-MIN(C$5:C$10))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <f>(D5-MIN(D$5:D$10))/(MAX(D$5:D$10)-MIN(D$5:D$10))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="17">
+        <f>(E5-MIN(E$5:E$10))/(MAX(E$5:E$10)-MIN(E$5:E$10))</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <f>(F5-MIN(F$5:F$10))/(MAX(F$5:F$10)-MIN(F$5:F$10))</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="17">
+        <f>(G5-MIN(G$5:G$10))/(MAX(G$5:G$10)-MIN(G$5:G$10))</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <f>(H5-MIN(H$5:H$10))/(MAX(H$5:H$10)-MIN(H$5:H$10))</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="17">
+        <f>(I5-MIN(I$5:I$10))/(MAX(I$5:I$10)-MIN(I$5:I$10))</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <f>(J5-MIN(J$5:J$10))/(MAX(J$5:J$10)-MIN(J$5:J$10))</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="17">
+        <f>1-(K5-MIN(K$5:K$10))/(MAX(K$5:K$10)-MIN(K$5:K$10))</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="17">
+        <f>(L5-MIN(L$5:L$10))/(MAX(L$5:L$10)-MIN(L$5:L$10))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="17">
+        <f>(C6-MIN(C$5:C$10))/(MAX(C$5:C$10)-MIN(C$5:C$10))</f>
+        <v>0.27598429275740688</v>
+      </c>
+      <c r="D19" s="17">
+        <f>(D6-MIN(D$5:D$10))/(MAX(D$5:D$10)-MIN(D$5:D$10))</f>
+        <v>0.22785309364283668</v>
+      </c>
+      <c r="E19" s="17">
+        <f>(E6-MIN(E$5:E$10))/(MAX(E$5:E$10)-MIN(E$5:E$10))</f>
+        <v>0.22847625572457053</v>
+      </c>
+      <c r="F19" s="17">
+        <f>(F6-MIN(F$5:F$10))/(MAX(F$5:F$10)-MIN(F$5:F$10))</f>
+        <v>0.46711673821548211</v>
+      </c>
+      <c r="G19" s="17">
+        <f>(G6-MIN(G$5:G$10))/(MAX(G$5:G$10)-MIN(G$5:G$10))</f>
+        <v>0.27573656519255935</v>
+      </c>
+      <c r="H19" s="17">
+        <f>(H6-MIN(H$5:H$10))/(MAX(H$5:H$10)-MIN(H$5:H$10))</f>
+        <v>0.18328499841144449</v>
+      </c>
+      <c r="I19" s="17">
+        <f>(I6-MIN(I$5:I$10))/(MAX(I$5:I$10)-MIN(I$5:I$10))</f>
+        <v>0.22779449104878718</v>
+      </c>
+      <c r="J19" s="17">
+        <f>(J6-MIN(J$5:J$10))/(MAX(J$5:J$10)-MIN(J$5:J$10))</f>
+        <v>0.21767000539103812</v>
+      </c>
+      <c r="K19" s="17">
+        <f>1-(K6-MIN(K$5:K$10))/(MAX(K$5:K$10)-MIN(K$5:K$10))</f>
+        <v>0.18159384072103879</v>
+      </c>
+      <c r="L19" s="17">
+        <f>(L6-MIN(L$5:L$10))/(MAX(L$5:L$10)-MIN(L$5:L$10))</f>
+        <v>0.22630062861416164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="17">
+        <f>(C7-MIN(C$5:C$10))/(MAX(C$5:C$10)-MIN(C$5:C$10))</f>
+        <v>0.20683995367456229</v>
+      </c>
+      <c r="D20" s="17">
+        <f>(D7-MIN(D$5:D$10))/(MAX(D$5:D$10)-MIN(D$5:D$10))</f>
+        <v>0.20024255661764401</v>
+      </c>
+      <c r="E20" s="17">
+        <f>(E7-MIN(E$5:E$10))/(MAX(E$5:E$10)-MIN(E$5:E$10))</f>
+        <v>0.22992290953651107</v>
+      </c>
+      <c r="F20" s="17">
+        <f>(F7-MIN(F$5:F$10))/(MAX(F$5:F$10)-MIN(F$5:F$10))</f>
+        <v>0.41527274324091962</v>
+      </c>
+      <c r="G20" s="17">
+        <f>(G7-MIN(G$5:G$10))/(MAX(G$5:G$10)-MIN(G$5:G$10))</f>
+        <v>0.19795165094286113</v>
+      </c>
+      <c r="H20" s="17">
+        <f>(H7-MIN(H$5:H$10))/(MAX(H$5:H$10)-MIN(H$5:H$10))</f>
+        <v>0.12449405879058663</v>
+      </c>
+      <c r="I20" s="17">
+        <f>(I7-MIN(I$5:I$10))/(MAX(I$5:I$10)-MIN(I$5:I$10))</f>
+        <v>0.20019105530568196</v>
+      </c>
+      <c r="J20" s="17">
+        <f>(J7-MIN(J$5:J$10))/(MAX(J$5:J$10)-MIN(J$5:J$10))</f>
+        <v>0.19129342367762928</v>
+      </c>
+      <c r="K20" s="17">
+        <f>1-(K7-MIN(K$5:K$10))/(MAX(K$5:K$10)-MIN(K$5:K$10))</f>
+        <v>0.12334536093337745</v>
+      </c>
+      <c r="L20" s="17">
+        <f>(L7-MIN(L$5:L$10))/(MAX(L$5:L$10)-MIN(L$5:L$10))</f>
+        <v>0.19862560071432539</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="17">
+        <f>(C8-MIN(C$5:C$10))/(MAX(C$5:C$10)-MIN(C$5:C$10))</f>
+        <v>0.46923290431352249</v>
+      </c>
+      <c r="D21" s="17">
+        <f>(D8-MIN(D$5:D$10))/(MAX(D$5:D$10)-MIN(D$5:D$10))</f>
+        <v>0.36462093931892275</v>
+      </c>
+      <c r="E21" s="17">
+        <f>(E8-MIN(E$5:E$10))/(MAX(E$5:E$10)-MIN(E$5:E$10))</f>
+        <v>0.36722125976038245</v>
+      </c>
+      <c r="F21" s="17">
+        <f>(F8-MIN(F$5:F$10))/(MAX(F$5:F$10)-MIN(F$5:F$10))</f>
+        <v>3.3044325601731428E-2</v>
+      </c>
+      <c r="G21" s="17">
+        <f>(G8-MIN(G$5:G$10))/(MAX(G$5:G$10)-MIN(G$5:G$10))</f>
+        <v>0.46881171394949778</v>
+      </c>
+      <c r="H21" s="17">
+        <f>(H8-MIN(H$5:H$10))/(MAX(H$5:H$10)-MIN(H$5:H$10))</f>
+        <v>0.3532823677742391</v>
+      </c>
+      <c r="I21" s="17">
+        <f>(I8-MIN(I$5:I$10))/(MAX(I$5:I$10)-MIN(I$5:I$10))</f>
+        <v>0.36452716076824376</v>
+      </c>
+      <c r="J21" s="17">
+        <f>(J8-MIN(J$5:J$10))/(MAX(J$5:J$10)-MIN(J$5:J$10))</f>
+        <v>0.34832549586377048</v>
+      </c>
+      <c r="K21" s="17">
+        <f>1-(K8-MIN(K$5:K$10))/(MAX(K$5:K$10)-MIN(K$5:K$10))</f>
+        <v>0.3500226564049238</v>
+      </c>
+      <c r="L21" s="17">
+        <f>(L8-MIN(L$5:L$10))/(MAX(L$5:L$10)-MIN(L$5:L$10))</f>
+        <v>0.34468424742394937</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="17">
+        <f>(C9-MIN(C$5:C$10))/(MAX(C$5:C$10)-MIN(C$5:C$10))</f>
+        <v>0.76399863660095169</v>
+      </c>
+      <c r="D22" s="17">
+        <f>(D9-MIN(D$5:D$10))/(MAX(D$5:D$10)-MIN(D$5:D$10))</f>
+        <v>0.6251117820391392</v>
+      </c>
+      <c r="E22" s="17">
+        <f>(E9-MIN(E$5:E$10))/(MAX(E$5:E$10)-MIN(E$5:E$10))</f>
+        <v>0.74424869914991698</v>
+      </c>
+      <c r="F22" s="17">
+        <f>(F9-MIN(F$5:F$10))/(MAX(F$5:F$10)-MIN(F$5:F$10))</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <f>(G9-MIN(G$5:G$10))/(MAX(G$5:G$10)-MIN(G$5:G$10))</f>
+        <v>0.74848530793887125</v>
+      </c>
+      <c r="H22" s="17">
+        <f>(H9-MIN(H$5:H$10))/(MAX(H$5:H$10)-MIN(H$5:H$10))</f>
+        <v>0.66037698542875223</v>
+      </c>
+      <c r="I22" s="17">
+        <f>(I9-MIN(I$5:I$10))/(MAX(I$5:I$10)-MIN(I$5:I$10))</f>
+        <v>0.62495100664033387</v>
+      </c>
+      <c r="J22" s="17">
+        <f>(J9-MIN(J$5:J$10))/(MAX(J$5:J$10)-MIN(J$5:J$10))</f>
+        <v>0.59717462155571555</v>
+      </c>
+      <c r="K22" s="17">
+        <f>1-(K9-MIN(K$5:K$10))/(MAX(K$5:K$10)-MIN(K$5:K$10))</f>
+        <v>0.65428373378701865</v>
+      </c>
+      <c r="L22" s="17">
+        <f>(L9-MIN(L$5:L$10))/(MAX(L$5:L$10)-MIN(L$5:L$10))</f>
+        <v>0.60390556205824053</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="17">
+        <f>(C10-MIN(C$5:C$10))/(MAX(C$5:C$10)-MIN(C$5:C$10))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <f>(D10-MIN(D$5:D$10))/(MAX(D$5:D$10)-MIN(D$5:D$10))</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <f>(E10-MIN(E$5:E$10))/(MAX(E$5:E$10)-MIN(E$5:E$10))</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <f>(F10-MIN(F$5:F$10))/(MAX(F$5:F$10)-MIN(F$5:F$10))</f>
+        <v>7.9716610037642216E-2</v>
+      </c>
+      <c r="G23" s="17">
+        <f>(G10-MIN(G$5:G$10))/(MAX(G$5:G$10)-MIN(G$5:G$10))</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <f>(H10-MIN(H$5:H$10))/(MAX(H$5:H$10)-MIN(H$5:H$10))</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="17">
+        <f>(I10-MIN(I$5:I$10))/(MAX(I$5:I$10)-MIN(I$5:I$10))</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <f>(J10-MIN(J$5:J$10))/(MAX(J$5:J$10)-MIN(J$5:J$10))</f>
+        <v>1</v>
+      </c>
+      <c r="K23" s="17">
+        <f>1-(K10-MIN(K$5:K$10))/(MAX(K$5:K$10)-MIN(K$5:K$10))</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="17">
+        <f>(L10-MIN(L$5:L$10))/(MAX(L$5:L$10)-MIN(L$5:L$10))</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:L10">
+    <sortCondition ref="E4:E10"/>
+  </sortState>
+  <conditionalFormatting sqref="C5:C10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E10">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F10">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H10">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I10">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J10">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K10">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:L23">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>